--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.49169999999999</v>
+        <v>-20.74439999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.00140000000001</v>
+        <v>-22.01400000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>4.693100000000002</v>
+        <v>4.6298</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.914699999999995</v>
+        <v>4.982199999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.74219999999999</v>
+        <v>-21.60599999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.160700000000006</v>
+        <v>-9.079600000000006</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.63379999999999</v>
+        <v>-8.275999999999996</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.1296</v>
+        <v>9.862500000000004</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.397</v>
+        <v>10.1176</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.907800000000007</v>
+        <v>9.155500000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.2717</v>
+        <v>-22.19739999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.09299999999998</v>
+        <v>-21.18519999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.15179999999999</v>
+        <v>-21.10929999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.599800000000005</v>
+        <v>9.694700000000006</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.35260000000001</v>
+        <v>17.44050000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.525199999999993</v>
+        <v>-8.644499999999995</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.23699999999999</v>
+        <v>-20.1874</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.046000000000003</v>
+        <v>6.091200000000003</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.38930000000001</v>
+        <v>17.43200000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.866500000000003</v>
+        <v>4.915400000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.485699999999998</v>
+        <v>-8.699899999999996</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.39980000000001</v>
+        <v>17.4099</v>
       </c>
     </row>
     <row r="49">
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.808699999999996</v>
+        <v>4.880099999999995</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.815899999999998</v>
+        <v>-7.825499999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.749799999999999</v>
+        <v>5.815799999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0499</v>
+        <v>-22.1587</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.57360000000002</v>
+        <v>-22.49990000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.43659999999999</v>
+        <v>-21.48610000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>5.328899999999999</v>
+        <v>5.401399999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.215700000000002</v>
+        <v>5.103400000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.92580000000001</v>
+        <v>17.58120000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.00810000000001</v>
+        <v>17.02220000000002</v>
       </c>
     </row>
     <row r="74">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.774600000000005</v>
+        <v>9.883600000000007</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.459700000000001</v>
+        <v>5.701700000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.3195</v>
+        <v>16.3342</v>
       </c>
     </row>
     <row r="88">
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.641</v>
+        <v>4.660299999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.56650000000002</v>
+        <v>18.55440000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.232199999999997</v>
+        <v>-8.220899999999999</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.566399999999999</v>
+        <v>5.5344</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.203799999999998</v>
+        <v>-8.301499999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9179</v>
+        <v>-21.93299999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.06940000000001</v>
+        <v>17.00880000000001</v>
       </c>
     </row>
     <row r="102">
